--- a/utilities_delta/spy_25d_spread.xlsx
+++ b/utilities_delta/spy_25d_spread.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,6 +2399,23 @@
         <v>4.3</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15</v>
+      </c>
+      <c r="C116" t="n">
+        <v>17</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
